--- a/datasets/earthquake_articles_examples.xlsx
+++ b/datasets/earthquake_articles_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oberbics\Documents\IEG_Mainz\Historical Newspapers Archives\Messina_Earthquake\article_separated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961013FB-9059-4CC7-BAFA-53BFCEF20A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0006F15-98D7-42CA-9DC7-76CB689D69BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFC7603-6033-401A-B6FB-5265A5733151}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="174">
   <si>
     <t>CKVUZJJGJJKKZ3IO57OQOEGIZO6BW4RT-ALTO8168494_DDB_FULLTEXT</t>
   </si>
@@ -992,6 +992,54 @@
 Die Erdbebenwarte Jugenheim teilt uns mit: In der verflossenen Nacht wurde hier ein Fernbeben in 8200km Entfernung aufgezeichnet. Der Anfang des Bebens war 12 Uhr 48 Min. 22 Sek., der Herd die Halbinsel Kamtschatka in Asien.
 </t>
   </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>pagenumber</t>
+  </si>
+  <si>
+    <t>paper_title</t>
+  </si>
+  <si>
+    <t>provider_ddb_id</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>zdb_id</t>
+  </si>
+  <si>
+    <t>publication_date</t>
+  </si>
+  <si>
+    <t>place_of_distribution</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>pagefulltext</t>
+  </si>
+  <si>
+    <t>pagename</t>
+  </si>
+  <si>
+    <t>preview_reference</t>
+  </si>
+  <si>
+    <t>plainpagefulltext</t>
+  </si>
+  <si>
+    <t>extracted_article</t>
+  </si>
+  <si>
+    <t>extracted_article_clean</t>
+  </si>
 </sst>
 </file>
 
@@ -1000,13 +1048,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1017,7 +1070,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1025,13 +1078,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1346,62 +1417,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0B19-3965-47E5-982B-53269D1307B4}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3293.5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1448,18 +1519,18 @@
         <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1474,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>3895.5</v>
+        <v>3293.5</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1483,33 +1554,33 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1524,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>3334.5</v>
+        <v>3895.5</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1533,33 +1604,33 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1574,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>3296.5</v>
+        <v>3334.5</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1583,33 +1654,33 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1624,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>3297.5</v>
+        <v>3296.5</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1633,33 +1704,33 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1674,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>3526.5</v>
+        <v>3297.5</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -1683,33 +1754,33 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1724,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>3331.5</v>
+        <v>3526.5</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1733,33 +1804,33 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1774,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>3955.5</v>
+        <v>3331.5</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -1783,33 +1854,33 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1824,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>3646.5</v>
+        <v>3955.5</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -1833,33 +1904,33 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1874,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>3294.5</v>
+        <v>3646.5</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -1883,25 +1954,25 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2006,10 +2077,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2024,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="1">
-        <v>3300.5</v>
+        <v>3294.5</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -2033,33 +2104,33 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2086,30 +2157,30 @@
         <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2136,30 +2207,30 @@
         <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2174,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>3738.5</v>
+        <v>3300.5</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -2183,33 +2254,33 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2224,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>4224.5</v>
+        <v>3738.5</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -2233,25 +2304,25 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2298,18 +2369,18 @@
         <v>123</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2324,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>3779.5</v>
+        <v>4224.5</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -2333,33 +2404,33 @@
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2386,30 +2457,30 @@
         <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2436,30 +2507,30 @@
         <v>129</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2474,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="1">
-        <v>4143.5</v>
+        <v>3779.5</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2483,24 +2554,74 @@
         <v>6</v>
       </c>
       <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4143.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
         <v>151</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>152</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>153</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>154</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N24" t="s">
         <v>155</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O24" t="s">
         <v>156</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>157</v>
       </c>
     </row>

--- a/datasets/earthquake_articles_examples.xlsx
+++ b/datasets/earthquake_articles_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oberbics\Documents\IEG_Mainz\Historical Newspapers Archives\Messina_Earthquake\article_separated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0006F15-98D7-42CA-9DC7-76CB689D69BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDCD98-0A87-4647-819F-23E83124DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFC7603-6033-401A-B6FB-5265A5733151}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="177">
   <si>
     <t>CKVUZJJGJJKKZ3IO57OQOEGIZO6BW4RT-ALTO8168494_DDB_FULLTEXT</t>
   </si>
@@ -1040,6 +1040,15 @@
   <si>
     <t>extracted_article_clean</t>
   </si>
+  <si>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>Hilfsreport</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
 </sst>
 </file>
 
@@ -1070,7 +1079,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1093,16 +1102,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1417,15 +1441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0B19-3965-47E5-982B-53269D1307B4}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
@@ -1474,8 +1498,11 @@
       <c r="P1" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1551,11 @@
       <c r="P2" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1574,8 +1604,11 @@
       <c r="P3" t="s">
         <v>15</v>
       </c>
+      <c r="Q3" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1657,11 @@
       <c r="P4" t="s">
         <v>23</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1674,8 +1710,11 @@
       <c r="P5" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1724,8 +1763,11 @@
       <c r="P6" t="s">
         <v>39</v>
       </c>
+      <c r="Q6" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1774,8 +1816,11 @@
       <c r="P7" t="s">
         <v>47</v>
       </c>
+      <c r="Q7" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1824,8 +1869,11 @@
       <c r="P8" t="s">
         <v>55</v>
       </c>
+      <c r="Q8" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1874,8 +1922,11 @@
       <c r="P9" t="s">
         <v>63</v>
       </c>
+      <c r="Q9" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1924,8 +1975,11 @@
       <c r="P10" t="s">
         <v>71</v>
       </c>
+      <c r="Q10" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1974,8 +2028,11 @@
       <c r="P11" t="s">
         <v>79</v>
       </c>
+      <c r="Q11" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -2024,13 +2081,16 @@
       <c r="P12" t="s">
         <v>87</v>
       </c>
+      <c r="Q12" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2045,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="1">
-        <v>3294.5</v>
+        <v>3300.5</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -2054,33 +2114,36 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2095,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="1">
-        <v>3294.5</v>
+        <v>3300.5</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -2104,33 +2167,36 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2157,30 +2223,33 @@
         <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2195,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>3300.5</v>
+        <v>3738.5</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -2204,33 +2273,36 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2245,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>3300.5</v>
+        <v>4224.5</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -2254,33 +2326,36 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2295,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>3738.5</v>
+        <v>4224.5</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -2304,33 +2379,36 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2345,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>4224.5</v>
+        <v>3779.5</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
@@ -2354,33 +2432,36 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2395,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>4224.5</v>
+        <v>3779.5</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -2404,33 +2485,36 @@
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2457,30 +2541,33 @@
         <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2495,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1">
-        <v>3779.5</v>
+        <v>4143.5</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
@@ -2504,125 +2591,28 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3779.5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" t="s">
-        <v>146</v>
-      </c>
-      <c r="N23" t="s">
-        <v>147</v>
-      </c>
-      <c r="O23" t="s">
-        <v>148</v>
-      </c>
-      <c r="P23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4143.5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" t="s">
-        <v>154</v>
-      </c>
-      <c r="N24" t="s">
-        <v>155</v>
-      </c>
-      <c r="O24" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" t="s">
         <v>157</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/earthquake_articles_examples.xlsx
+++ b/datasets/earthquake_articles_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oberbics\Documents\IEG_Mainz\Historical Newspapers Archives\Messina_Earthquake\article_separated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDCD98-0A87-4647-819F-23E83124DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFE08E-1D8F-438D-9075-C9FFAC844D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFC7603-6033-401A-B6FB-5265A5733151}"/>
   </bookViews>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q2" sqref="Q2:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1870,7 +1870,7 @@
         <v>55</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -2188,7 +2188,7 @@
         <v>102</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
